--- a/data/trans_bre/P21_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P21_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.935689228713979</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.095781687311982</v>
+        <v>6.095781687311991</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6327870436782136</v>
@@ -649,7 +649,7 @@
         <v>0.2112118437380969</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2463893180992232</v>
+        <v>0.2463893180992235</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.16105939505929</v>
+        <v>7.3978133185543</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.549338124351911</v>
+        <v>8.819170508904961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5637518249192421</v>
+        <v>0.7506946247381879</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.003196262193331</v>
+        <v>0.3143460293810872</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3225550651552489</v>
+        <v>0.3362542855687686</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3475516296127924</v>
+        <v>0.3543489545831313</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02585460058571366</v>
+        <v>0.03868720126125745</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.02562050435203156</v>
+        <v>0.00842255631511955</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.29157303193563</v>
+        <v>16.60847094658827</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.36887612695741</v>
+        <v>17.07618471631633</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.342585215105559</v>
+        <v>7.600626547122684</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.55719321530789</v>
+        <v>11.10646628024753</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.005523701963126</v>
+        <v>1.00842657457648</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7918356514101584</v>
+        <v>0.8265524008174689</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4334585046397044</v>
+        <v>0.4533568475638584</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.538533485605532</v>
+        <v>0.5067845475858928</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.592619702378302</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.202386043726134</v>
+        <v>5.202386043726126</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.297208617170278</v>
@@ -749,7 +749,7 @@
         <v>0.2172123063293517</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2942399175262224</v>
+        <v>0.294239917526222</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.532726131368668</v>
+        <v>1.456404402550065</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9987847887596789</v>
+        <v>0.8180939251712396</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.1191469843927408</v>
+        <v>0.1266919522207541</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.460878898764298</v>
+        <v>1.67353205022052</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07507924114404427</v>
+        <v>0.07868244968886058</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04231871900045631</v>
+        <v>0.03601438606885172</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01254397249492119</v>
+        <v>0.006569884735456571</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.07152538336777779</v>
+        <v>0.0791234075480008</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.462403645037226</v>
+        <v>8.461890846580028</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.599664605301719</v>
+        <v>8.532376656848534</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.312361694391877</v>
+        <v>7.550469826292594</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.587360051075335</v>
+        <v>8.797143322509429</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5503998551277111</v>
+        <v>0.556037715778069</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4578668639662686</v>
+        <v>0.4398798493463797</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5020814967420565</v>
+        <v>0.5230137167517215</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5477151073851749</v>
+        <v>0.5670536759285649</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.391722488346464</v>
+        <v>4.262284460331684</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.133313595526653</v>
+        <v>-1.94322734245647</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.630115228370869</v>
+        <v>2.5485540023091</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.849486709482499</v>
+        <v>2.575267771805906</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2575353719307872</v>
+        <v>0.2443536852002787</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.0946696153710116</v>
+        <v>-0.08808242631756358</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1620023672845273</v>
+        <v>0.1632521170025097</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1311997859133132</v>
+        <v>0.1267147375197262</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.37097114224877</v>
+        <v>11.48938296449388</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.726188477356268</v>
+        <v>5.994977203536837</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.62657234907662</v>
+        <v>10.09026390251129</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.00914118832092</v>
+        <v>10.13201276825085</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8033133309693257</v>
+        <v>0.7955374149017471</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3189258508607833</v>
+        <v>0.3276216063428716</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8887603627913992</v>
+        <v>0.8255228699104941</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5889729837688072</v>
+        <v>0.6008290418788937</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.701134271509683</v>
+        <v>-5.859178228356545</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.124983926148787</v>
+        <v>0.9225459636565925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5858284491400417</v>
+        <v>0.5297139508841512</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.796301364850235</v>
+        <v>-5.169897678314636</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2847780311074063</v>
+        <v>-0.2831333170852128</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0487671710149051</v>
+        <v>0.04118234895828474</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03131757787201794</v>
+        <v>0.01244886685716876</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1852115240995716</v>
+        <v>-0.1943808586515938</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.128134377234409</v>
+        <v>5.269144708275808</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.82936311387715</v>
+        <v>11.99266553295798</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.97384323282702</v>
+        <v>10.59082349619089</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.148940462792613</v>
+        <v>3.225248374850839</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3276752556614524</v>
+        <v>0.33313279550093</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8634358136505716</v>
+        <v>0.8769904833825922</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.749729631208556</v>
+        <v>0.7072705030815515</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1445361091874758</v>
+        <v>0.1603405232718101</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.78385789084774</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.163107457780119</v>
+        <v>4.163107457780116</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4315953932698683</v>
@@ -1049,7 +1049,7 @@
         <v>0.2864480189747064</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2000649375488407</v>
+        <v>0.2000649375488406</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.342077730624217</v>
+        <v>5.362472795276049</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.640902840447777</v>
+        <v>4.659491283397854</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.613204329301349</v>
+        <v>2.781801562221899</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.245480067574944</v>
+        <v>2.22886646305027</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.292288437427381</v>
+        <v>0.2960526494930847</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2113229419191076</v>
+        <v>0.2143045292783472</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1465448216943397</v>
+        <v>0.1594673520760618</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1027813838956458</v>
+        <v>0.1019681039709191</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.250213926665452</v>
+        <v>9.345612005045261</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.87336827424032</v>
+        <v>8.80682016328314</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.809951146742102</v>
+        <v>6.806667369236092</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.234928547140274</v>
+        <v>6.073372599821486</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5724537294170435</v>
+        <v>0.5823818827450093</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4530881120813403</v>
+        <v>0.4517908318309909</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4286997541457783</v>
+        <v>0.4422735110048368</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3220453716408667</v>
+        <v>0.3083942052707088</v>
       </c>
     </row>
     <row r="19">
